--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -12,12 +12,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>RowNum</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin@123#</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Supervisor@123#</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Sales@123#</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SalesAdmin</t>
+  </si>
+  <si>
+    <t>SalesAdmin@123#</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>SuperAdmin@123#</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DBAdmin</t>
+  </si>
+  <si>
+    <t>DBAdmin@123#</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Clerk</t>
+  </si>
+  <si>
+    <t>Clerk@123#</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HR@123#</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>HRAdmin</t>
@@ -68,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,13 +159,107 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
